--- a/personality and race-IAT study/code/R_processing_codebook.xlsx
+++ b/personality and race-IAT study/code/R_processing_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -35,12 +35,45 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">cor_bfi_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_bfi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_bfi_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_bfi_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_bfi_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_bfi_completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_bfi_logical_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_bfi_meanscore</t>
+  </si>
+  <si>
     <t xml:space="preserve">data_bfi_raw</t>
   </si>
   <si>
     <t xml:space="preserve">Data Frame: containing raw data from big five inventory table</t>
   </si>
   <si>
+    <t xml:space="preserve">data_bfi_rev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_bfi_rev_without_onrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_bfi_rev_without_onrc_ex_compl</t>
+  </si>
+  <si>
     <t xml:space="preserve">data_demographics</t>
   </si>
   <si>
@@ -69,6 +102,72 @@
   </si>
   <si>
     <t xml:space="preserve">All information for analysis without the master exclusion column and the three demographic exclusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxscore_bfi_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxscore_bfi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxscore_bfi_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxscore_bfi_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxscore_bfi_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minscore_bfi_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minscore_bfi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minscore_bfi_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minscore_bfi_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minscore_bfi_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_values_a_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_values_c_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_values_e_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_values_n_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_values_o_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_bfi_compl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_bfi_logical_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_range_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_range_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_range_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_range_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_range_o</t>
   </si>
   <si>
     <t xml:space="preserve">sorted_variable_codebook_E_dp_vtr</t>
@@ -520,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="33.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="34.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="101.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="21.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="44.71" hidden="0" customWidth="1"/>
@@ -559,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -570,24 +669,24 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -598,10 +697,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -612,10 +711,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -626,13 +725,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -640,7 +739,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -654,10 +753,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -668,10 +767,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -682,10 +781,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -696,7 +795,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -710,10 +809,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -724,26 +823,38 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -754,10 +865,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -768,13 +879,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -782,10 +893,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -796,10 +907,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -810,10 +921,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -824,10 +935,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -838,10 +949,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -852,10 +963,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -866,10 +977,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -880,10 +991,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -894,10 +1005,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -908,10 +1019,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -922,15 +1033,465 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
         <v>6</v>
       </c>
     </row>

--- a/personality and race-IAT study/code/R_processing_codebook.xlsx
+++ b/personality and race-IAT study/code/R_processing_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">new_changes</t>
   </si>
   <si>
+    <t xml:space="preserve">all_values_within_range</t>
+  </si>
+  <si>
     <t xml:space="preserve">codebook_E</t>
   </si>
   <si>
@@ -86,12 +89,33 @@
     <t xml:space="preserve">one-row-one-participant and age is numerical</t>
   </si>
   <si>
+    <t xml:space="preserve">data_iat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_iat_completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_iat_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_iat_mean1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_iat_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_iat_performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">data_iat_raw</t>
   </si>
   <si>
     <t xml:space="preserve">Data Frame: containing raw data from IAT</t>
   </si>
   <si>
+    <t xml:space="preserve">data_iat_SD</t>
+  </si>
+  <si>
     <t xml:space="preserve">data_processed</t>
   </si>
   <si>
@@ -153,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">result_bfi_logical_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_iat_compl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result_iat_perf</t>
   </si>
   <si>
     <t xml:space="preserve">result_range_a</t>
@@ -643,28 +673,22 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +696,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +710,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +724,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +738,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +752,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +780,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -770,27 +794,27 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +822,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +836,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -826,181 +850,175 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1008,13 +1026,13 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1022,13 +1040,13 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1036,13 +1054,13 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1050,13 +1068,13 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1064,13 +1082,13 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1078,13 +1096,13 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1092,13 +1110,13 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1106,13 +1124,13 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1120,13 +1138,13 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1134,13 +1152,13 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1148,13 +1166,13 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1162,13 +1180,13 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1176,13 +1194,13 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1190,13 +1208,13 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1204,13 +1222,13 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1218,281 +1236,421 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>91</v>
       </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/personality and race-IAT study/code/R_processing_codebook.xlsx
+++ b/personality and race-IAT study/code/R_processing_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -185,6 +185,9 @@
     <t xml:space="preserve">result_iat_perf</t>
   </si>
   <si>
+    <t xml:space="preserve">result_master_exclusion</t>
+  </si>
+  <si>
     <t xml:space="preserve">result_range_a</t>
   </si>
   <si>
@@ -248,10 +251,61 @@
     <t xml:space="preserve">Participant age</t>
   </si>
   <si>
+    <t xml:space="preserve">bfi_a_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_c_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_e_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_n_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_o_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_bfi_completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_bfi_logical_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_iat_completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_iat_performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_participant_without_bfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_participant_without_iat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_unique_id_is.na</t>
+  </si>
+  <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">Participant gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_mean1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_SD</t>
   </si>
   <si>
     <t xml:space="preserve">unique_id</t>
@@ -1376,7 +1430,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1387,10 +1441,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
         <v>65</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1401,10 +1455,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
         <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1415,10 +1469,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
         <v>69</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1432,7 +1486,7 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1443,11 +1497,17 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
         <v>72</v>
       </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1461,22 +1521,16 @@
       <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>77</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1487,10 +1541,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1501,10 +1555,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1515,10 +1569,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1529,10 +1583,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1543,10 +1597,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1557,10 +1611,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1571,10 +1625,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1585,10 +1639,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1599,10 +1653,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -1613,10 +1667,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1627,10 +1681,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -1641,15 +1695,249 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
         <v>100</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B82" t="s">
         <v>101</v>
       </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
         <v>7</v>
       </c>
     </row>

--- a/personality and race-IAT study/code/R_processing_codebook.xlsx
+++ b/personality and race-IAT study/code/R_processing_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -128,34 +128,10 @@
     <t xml:space="preserve">All information for analysis without the master exclusion column and the three demographic exclusions</t>
   </si>
   <si>
-    <t xml:space="preserve">maxscore_bfi_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxscore_bfi_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxscore_bfi_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxscore_bfi_n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxscore_bfi_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minscore_bfi_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minscore_bfi_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minscore_bfi_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minscore_bfi_n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minscore_bfi_o</t>
+    <t xml:space="preserve">maxscore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minscore</t>
   </si>
   <si>
     <t xml:space="preserve">negative_values_a_exist</t>
@@ -1079,29 +1055,17 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1332,7 +1296,7 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1343,10 +1307,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1357,10 +1321,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1371,7 +1335,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1385,10 +1349,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1399,38 +1363,26 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1441,10 +1393,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1455,10 +1407,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1469,10 +1421,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1483,7 +1435,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1497,10 +1449,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1511,26 +1463,38 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1541,10 +1505,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1585,50 +1549,32 @@
       <c r="A65" t="s">
         <v>81</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>82</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>83</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1639,7 +1585,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -1653,7 +1599,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -1667,7 +1613,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -1681,7 +1627,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -1695,34 +1641,52 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -1733,10 +1697,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1747,10 +1711,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1761,10 +1725,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1775,10 +1739,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -1789,10 +1753,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -1803,10 +1767,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -1817,127 +1781,15 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>112</v>
-      </c>
-      <c r="B88" t="s">
-        <v>113</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
         <v>7</v>
       </c>
     </row>
